--- a/biology/Botanique/Arnica_lanceolata/Arnica_lanceolata.xlsx
+++ b/biology/Botanique/Arnica_lanceolata/Arnica_lanceolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arnica lanceolata est une espèce de plante à fleurs nord-américaine du genre Arnica appartenant à la famille des Asteraceae (famille du Tournesol), connue sous le nom commun d'Arnica à aigrettes brunes ou Arnica à feuilles de lance. Sa répartition est discontinue dans l'ouest et le nord-est de l’Amérique du Nord[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arnica lanceolata est une espèce de plante à fleurs nord-américaine du genre Arnica appartenant à la famille des Asteraceae (famille du Tournesol), connue sous le nom commun d'Arnica à aigrettes brunes ou Arnica à feuilles de lance. Sa répartition est discontinue dans l'ouest et le nord-est de l’Amérique du Nord,. 
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 mai 2019)[6] et World Register of Marine Species                               (7 mai 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 mai 2019) et World Register of Marine Species                               (7 mai 2019) :
 sous-espèce Arnica lanceolata subsp. lanceolata
 sous-espèce Arnica lanceolata subsp. prima (Maguire) Strother &amp; S.J.Wolf
-Selon NCBI  (7 mai 2019)[7] et The Plant List            (7 mai 2019)[1] :
+Selon NCBI  (7 mai 2019) et The Plant List            (7 mai 2019) :
 sous-espèce Arnica lanceolata subsp. prima (Maguire) Strother &amp; S.J.Wolf
-Selon Tropicos                                           (7 mai 2019)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 mai 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Arnica lanceolata subsp. amplexicaulis (Nutt.) Gruezo
 sous-espèce Arnica lanceolata subsp. lanceolata
 sous-espèce Arnica lanceolata subsp. prima (Maguire) Strother &amp; S.J. Wolf</t>
